--- a/data/trans_orig/IP07B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07B-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74A0680B-A3D0-4DE3-B010-8E9E470C51C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0137C534-0D41-487E-8A7D-A015B2C079AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2E01DAC3-A8FC-4472-894E-623AA345DF99}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0740AA3C-3547-4780-9A83-5F533BFF5242}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="598">
   <si>
     <t>Menores según salud general autopercibida en 2007 (Tasa respuesta: 41,63%)</t>
   </si>
@@ -98,7 +98,7 @@
     <t>1,43%</t>
   </si>
   <si>
-    <t>11,92%</t>
+    <t>13,1%</t>
   </si>
   <si>
     <t>2,26%</t>
@@ -107,7 +107,7 @@
     <t>0,73%</t>
   </si>
   <si>
-    <t>6,07%</t>
+    <t>6,05%</t>
   </si>
   <si>
     <t>Buena</t>
@@ -116,28 +116,25 @@
     <t>32,43%</t>
   </si>
   <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
     <t>20,88%</t>
   </si>
   <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
   </si>
   <si>
     <t>26,52%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
   </si>
   <si>
     <t>Muy buena</t>
@@ -146,28 +143,28 @@
     <t>57,4%</t>
   </si>
   <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
   </si>
   <si>
     <t>49,09%</t>
   </si>
   <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
   </si>
   <si>
     <t>53,14%</t>
   </si>
   <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
   </si>
   <si>
     <t>Excelente</t>
@@ -176,1675 +173,1666 @@
     <t>10,17%</t>
   </si>
   <si>
-    <t>4,03%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según salud general autopercibida en 2012 (Tasa respuesta: 41,45%)</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
   </si>
   <si>
     <t>22,14%</t>
   </si>
   <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>Menores según salud general autopercibida en 2016 (Tasa respuesta: 42,76%)</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
   </si>
   <si>
     <t>19,55%</t>
   </si>
   <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>Menores según salud general autopercibida en 2023 (Tasa respuesta: 30,16%)</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según salud general autopercibida en 2012 (Tasa respuesta: 41,45%)</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>Menores según salud general autopercibida en 2015 (Tasa respuesta: 42,76%)</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>Menores según salud general autopercibida en 2023 (Tasa respuesta: 30,16%)</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
   </si>
   <si>
     <t>37,37%</t>
   </si>
   <si>
-    <t>31,8%</t>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
   </si>
   <si>
     <t>30,02%</t>
   </si>
   <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
   </si>
   <si>
     <t>34,2%</t>
   </si>
   <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
   </si>
   <si>
     <t>45,73%</t>
   </si>
   <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
   </si>
   <si>
     <t>49,48%</t>
   </si>
   <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
   </si>
   <si>
     <t>47,35%</t>
   </si>
   <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
   </si>
   <si>
     <t>15,55%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
   </si>
   <si>
     <t>19,21%</t>
   </si>
   <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
   </si>
   <si>
     <t>17,13%</t>
   </si>
   <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
+    <t>22,49%</t>
   </si>
 </sst>
 </file>
@@ -2256,7 +2244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB24CE1-9686-43B4-ADA9-AC9F01FC31F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46516A96-EB80-45D9-A71C-757306011021}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2497,13 +2485,13 @@
         <v>9323</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
@@ -2512,19 +2500,19 @@
         <v>23134</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7">
         <v>38</v>
@@ -2533,13 +2521,13 @@
         <v>24440</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -2548,13 +2536,13 @@
         <v>21920</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>71</v>
@@ -2563,19 +2551,19 @@
         <v>46360</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="7">
         <v>6</v>
@@ -2584,13 +2572,13 @@
         <v>4331</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -2599,13 +2587,13 @@
         <v>11441</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -2614,13 +2602,13 @@
         <v>15772</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,13 +2623,13 @@
         <v>42582</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>67</v>
@@ -2650,13 +2638,13 @@
         <v>44656</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>131</v>
@@ -2665,18 +2653,18 @@
         <v>87238</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2694,7 +2682,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2709,7 +2697,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2724,7 +2712,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,10 +2727,10 @@
         <v>4174</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>59</v>
@@ -2832,7 +2820,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="7">
         <v>188</v>
@@ -2883,7 +2871,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="7">
         <v>49</v>
@@ -2943,13 +2931,13 @@
         <v>211071</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
         <v>277</v>
@@ -2958,13 +2946,13 @@
         <v>185120</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
         <v>596</v>
@@ -2973,13 +2961,13 @@
         <v>396191</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,7 +3128,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7">
         <v>46</v>
@@ -3191,7 +3179,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="7">
         <v>16</v>
@@ -3251,13 +3239,13 @@
         <v>48509</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
         <v>77</v>
@@ -3266,13 +3254,13 @@
         <v>53407</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
         <v>149</v>
@@ -3281,13 +3269,13 @@
         <v>101916</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,7 +3379,7 @@
         <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,13 +3394,13 @@
         <v>69624</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H24" s="7">
         <v>85</v>
@@ -3421,13 +3409,13 @@
         <v>57836</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M24" s="7">
         <v>189</v>
@@ -3436,19 +3424,19 @@
         <v>127460</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="7">
         <v>272</v>
@@ -3457,13 +3445,13 @@
         <v>180523</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H25" s="7">
         <v>242</v>
@@ -3472,13 +3460,13 @@
         <v>161986</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M25" s="7">
         <v>514</v>
@@ -3487,19 +3475,19 @@
         <v>342509</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="7">
         <v>71</v>
@@ -3508,13 +3496,13 @@
         <v>46381</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H26" s="7">
         <v>85</v>
@@ -3523,13 +3511,13 @@
         <v>57277</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>156</v>
@@ -3538,13 +3526,13 @@
         <v>103658</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,13 +3547,13 @@
         <v>302162</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <v>421</v>
@@ -3574,13 +3562,13 @@
         <v>283184</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>876</v>
@@ -3589,18 +3577,18 @@
         <v>585346</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3619,7 +3607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D2D838-22CB-4F6C-BF9C-6ACEE0E822C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD27C65C-7AF9-41E2-AFD1-79B1035F5B7D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3636,7 +3624,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3764,7 +3752,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3779,7 +3767,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3782,13 @@
         <v>624</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3809,13 +3797,13 @@
         <v>1331</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3824,13 +3812,13 @@
         <v>1955</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +3833,13 @@
         <v>11998</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -3860,13 +3848,13 @@
         <v>16687</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M6" s="7">
         <v>41</v>
@@ -3875,19 +3863,19 @@
         <v>28685</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7">
         <v>34</v>
@@ -3896,13 +3884,13 @@
         <v>25520</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -3911,13 +3899,13 @@
         <v>26616</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -3926,19 +3914,19 @@
         <v>52136</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="7">
         <v>11</v>
@@ -3947,13 +3935,13 @@
         <v>7020</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -3962,13 +3950,13 @@
         <v>3273</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -3977,13 +3965,13 @@
         <v>10292</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,13 +3986,13 @@
         <v>45162</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>68</v>
@@ -4013,13 +4001,13 @@
         <v>47907</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>132</v>
@@ -4028,18 +4016,18 @@
         <v>93068</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4051,13 +4039,13 @@
         <v>682</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4066,13 +4054,13 @@
         <v>675</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -4081,13 +4069,13 @@
         <v>1358</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,13 +4090,13 @@
         <v>10076</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>214</v>
+        <v>102</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -4117,13 +4105,13 @@
         <v>5020</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -4132,13 +4120,13 @@
         <v>15096</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4141,13 @@
         <v>47404</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>46</v>
+        <v>219</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H12" s="7">
         <v>55</v>
@@ -4168,13 +4156,13 @@
         <v>38519</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>225</v>
+        <v>106</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M12" s="7">
         <v>123</v>
@@ -4183,19 +4171,19 @@
         <v>85923</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="7">
         <v>159</v>
@@ -4204,13 +4192,13 @@
         <v>108060</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H13" s="7">
         <v>155</v>
@@ -4219,13 +4207,13 @@
         <v>108763</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="M13" s="7">
         <v>314</v>
@@ -4234,19 +4222,19 @@
         <v>216823</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="7">
         <v>70</v>
@@ -4255,13 +4243,13 @@
         <v>47915</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -4270,13 +4258,13 @@
         <v>33534</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M14" s="7">
         <v>119</v>
@@ -4285,13 +4273,13 @@
         <v>81449</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,13 +4294,13 @@
         <v>214137</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
         <v>267</v>
@@ -4321,13 +4309,13 @@
         <v>186511</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
         <v>580</v>
@@ -4336,13 +4324,13 @@
         <v>400648</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,7 +4353,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4374,13 +4362,13 @@
         <v>768</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -4389,13 +4377,13 @@
         <v>768</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,7 +4404,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -4425,13 +4413,13 @@
         <v>1550</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4440,13 +4428,13 @@
         <v>1550</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,13 +4449,13 @@
         <v>15683</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H18" s="7">
         <v>26</v>
@@ -4476,13 +4464,13 @@
         <v>19051</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M18" s="7">
         <v>48</v>
@@ -4491,19 +4479,19 @@
         <v>34733</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7">
         <v>43</v>
@@ -4512,13 +4500,13 @@
         <v>28633</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
@@ -4527,13 +4515,13 @@
         <v>31280</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M19" s="7">
         <v>86</v>
@@ -4542,19 +4530,19 @@
         <v>59913</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="7">
         <v>13</v>
@@ -4563,13 +4551,13 @@
         <v>8597</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -4578,13 +4566,13 @@
         <v>5142</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -4593,13 +4581,13 @@
         <v>13740</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,13 +4602,13 @@
         <v>52913</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
         <v>80</v>
@@ -4629,13 +4617,13 @@
         <v>57791</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
         <v>158</v>
@@ -4644,13 +4632,13 @@
         <v>110704</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4655,13 @@
         <v>682</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -4682,13 +4670,13 @@
         <v>1443</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -4697,13 +4685,13 @@
         <v>2125</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4706,13 @@
         <v>10700</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -4733,13 +4721,13 @@
         <v>7901</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M23" s="7">
         <v>27</v>
@@ -4748,13 +4736,13 @@
         <v>18600</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>179</v>
+        <v>292</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>294</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,13 +4757,13 @@
         <v>75085</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H24" s="7">
         <v>104</v>
@@ -4784,13 +4772,13 @@
         <v>74256</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M24" s="7">
         <v>212</v>
@@ -4799,19 +4787,19 @@
         <v>149341</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="7">
         <v>236</v>
@@ -4820,13 +4808,13 @@
         <v>162213</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H25" s="7">
         <v>236</v>
@@ -4835,13 +4823,13 @@
         <v>166659</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M25" s="7">
         <v>472</v>
@@ -4850,19 +4838,19 @@
         <v>328872</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="7">
         <v>94</v>
@@ -4871,13 +4859,13 @@
         <v>63532</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H26" s="7">
         <v>62</v>
@@ -4886,13 +4874,13 @@
         <v>41949</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M26" s="7">
         <v>156</v>
@@ -4901,13 +4889,13 @@
         <v>105481</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4910,13 @@
         <v>312212</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <v>415</v>
@@ -4937,13 +4925,13 @@
         <v>292209</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>870</v>
@@ -4952,18 +4940,18 @@
         <v>604421</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4982,7 +4970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFE0D51-426F-4E01-80A4-EE0AF4339E6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93312DEC-3A5D-4810-9918-136609A0209E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5142,7 +5130,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,7 +5238,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7">
         <v>30</v>
@@ -5301,7 +5289,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="7">
         <v>14</v>
@@ -5361,13 +5349,13 @@
         <v>36638</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>42</v>
@@ -5376,13 +5364,13 @@
         <v>29229</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>93</v>
@@ -5391,18 +5379,18 @@
         <v>65868</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5414,7 +5402,7 @@
         <v>700</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
@@ -5450,7 +5438,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,13 +5453,13 @@
         <v>1088</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -5480,13 +5468,13 @@
         <v>2259</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -5495,10 +5483,10 @@
         <v>3347</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>368</v>
@@ -5558,7 +5546,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="7">
         <v>114</v>
@@ -5609,7 +5597,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="7">
         <v>129</v>
@@ -5654,7 +5642,7 @@
         <v>394</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5657,13 @@
         <v>215713</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
         <v>327</v>
@@ -5684,13 +5672,13 @@
         <v>228668</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
         <v>621</v>
@@ -5699,13 +5687,13 @@
         <v>444381</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,7 +5710,7 @@
         <v>690</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>286</v>
+        <v>395</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
@@ -5743,7 +5731,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5752,7 +5740,7 @@
         <v>690</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
@@ -5788,7 +5776,7 @@
         <v>617</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>139</v>
+        <v>284</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
@@ -5857,16 +5845,16 @@
         <v>411</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>329</v>
+        <v>412</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>412</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7">
         <v>46</v>
@@ -5875,13 +5863,13 @@
         <v>32731</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="H19" s="7">
         <v>53</v>
@@ -5890,13 +5878,13 @@
         <v>38362</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="M19" s="7">
         <v>99</v>
@@ -5905,10 +5893,10 @@
         <v>71094</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>420</v>
@@ -5917,7 +5905,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="7">
         <v>37</v>
@@ -5932,7 +5920,7 @@
         <v>422</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -5941,13 +5929,13 @@
         <v>19604</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M20" s="7">
         <v>65</v>
@@ -5956,13 +5944,13 @@
         <v>46165</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5977,13 +5965,13 @@
         <v>73654</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
         <v>93</v>
@@ -5992,13 +5980,13 @@
         <v>66271</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
         <v>195</v>
@@ -6007,13 +5995,13 @@
         <v>139925</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6030,13 +6018,13 @@
         <v>1390</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>431</v>
+        <v>281</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -6045,13 +6033,13 @@
         <v>657</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -6063,10 +6051,10 @@
         <v>360</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6081,13 +6069,13 @@
         <v>4156</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -6099,10 +6087,10 @@
         <v>95</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>290</v>
+        <v>437</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -6111,13 +6099,13 @@
         <v>8550</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>21</v>
+        <v>403</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,13 +6120,13 @@
         <v>52207</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="H24" s="7">
         <v>65</v>
@@ -6147,13 +6135,13 @@
         <v>46390</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="M24" s="7">
         <v>135</v>
@@ -6162,19 +6150,19 @@
         <v>98596</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="7">
         <v>190</v>
@@ -6183,13 +6171,13 @@
         <v>136696</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="H25" s="7">
         <v>233</v>
@@ -6198,13 +6186,13 @@
         <v>162068</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="M25" s="7">
         <v>423</v>
@@ -6213,19 +6201,19 @@
         <v>298764</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="7">
         <v>180</v>
@@ -6234,13 +6222,13 @@
         <v>131557</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="H26" s="7">
         <v>156</v>
@@ -6249,13 +6237,13 @@
         <v>110659</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="M26" s="7">
         <v>336</v>
@@ -6264,13 +6252,13 @@
         <v>242217</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6285,13 +6273,13 @@
         <v>326006</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <v>462</v>
@@ -6300,13 +6288,13 @@
         <v>324168</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>909</v>
@@ -6315,18 +6303,18 @@
         <v>650174</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -6345,7 +6333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441C7152-4144-438B-B9AC-3FC8D203B066}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDFF1F6-EE1E-4EA3-9EBA-85ACA0F22B60}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6362,7 +6350,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6475,7 +6463,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6490,7 +6478,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6505,7 +6493,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6520,13 +6508,13 @@
         <v>1790</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6541,7 +6529,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6550,13 +6538,13 @@
         <v>1790</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6571,13 +6559,13 @@
         <v>6586</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -6604,16 +6592,16 @@
         <v>481</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7">
         <v>10</v>
@@ -6622,13 +6610,13 @@
         <v>7900</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -6637,13 +6625,13 @@
         <v>7274</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -6652,19 +6640,19 @@
         <v>15173</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -6673,13 +6661,13 @@
         <v>642</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -6688,13 +6676,13 @@
         <v>2995</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>494</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>496</v>
+        <v>40</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -6703,13 +6691,13 @@
         <v>3638</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,13 +6712,13 @@
         <v>16918</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>18</v>
@@ -6739,13 +6727,13 @@
         <v>13910</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>39</v>
@@ -6754,18 +6742,18 @@
         <v>30827</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6783,7 +6771,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>500</v>
+        <v>399</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6798,7 +6786,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6813,7 +6801,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,13 +6816,13 @@
         <v>1814</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -6846,10 +6834,10 @@
         <v>95</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>358</v>
+        <v>503</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -6858,13 +6846,13 @@
         <v>3840</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6879,13 +6867,13 @@
         <v>72300</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>512</v>
+        <v>453</v>
       </c>
       <c r="H12" s="7">
         <v>65</v>
@@ -6894,13 +6882,13 @@
         <v>46030</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="M12" s="7">
         <v>140</v>
@@ -6909,19 +6897,19 @@
         <v>118329</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="7">
         <v>104</v>
@@ -6930,13 +6918,13 @@
         <v>90914</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>520</v>
+        <v>378</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>521</v>
+        <v>264</v>
       </c>
       <c r="H13" s="7">
         <v>102</v>
@@ -6945,13 +6933,13 @@
         <v>75269</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="M13" s="7">
         <v>206</v>
@@ -6960,19 +6948,19 @@
         <v>166183</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>113</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="7">
         <v>36</v>
@@ -6981,13 +6969,13 @@
         <v>32934</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -6996,13 +6984,13 @@
         <v>25731</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -7011,13 +6999,13 @@
         <v>58665</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>370</v>
+        <v>530</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7032,13 +7020,13 @@
         <v>197961</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
         <v>196</v>
@@ -7047,13 +7035,13 @@
         <v>149056</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
         <v>414</v>
@@ -7062,13 +7050,13 @@
         <v>347017</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7091,7 +7079,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>535</v>
+        <v>362</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7106,7 +7094,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7121,7 +7109,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7142,7 +7130,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>535</v>
+        <v>362</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -7151,13 +7139,13 @@
         <v>605</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>538</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -7166,13 +7154,13 @@
         <v>605</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7187,13 +7175,13 @@
         <v>21282</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>544</v>
+        <v>231</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -7202,13 +7190,13 @@
         <v>11426</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="M18" s="7">
         <v>45</v>
@@ -7217,19 +7205,19 @@
         <v>32708</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7">
         <v>30</v>
@@ -7238,13 +7226,13 @@
         <v>23773</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="H19" s="7">
         <v>24</v>
@@ -7253,13 +7241,13 @@
         <v>18153</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>550</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
@@ -7268,19 +7256,19 @@
         <v>41927</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="7">
         <v>12</v>
@@ -7289,13 +7277,13 @@
         <v>8105</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -7304,13 +7292,13 @@
         <v>10363</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -7319,13 +7307,13 @@
         <v>18468</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7340,13 +7328,13 @@
         <v>53160</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
         <v>57</v>
@@ -7355,13 +7343,13 @@
         <v>40548</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
         <v>126</v>
@@ -7370,13 +7358,13 @@
         <v>93708</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7399,7 +7387,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>134</v>
+        <v>563</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7429,7 +7417,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7444,13 +7432,13 @@
         <v>3603</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -7459,13 +7447,13 @@
         <v>2631</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>360</v>
+        <v>569</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>573</v>
+        <v>327</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -7474,13 +7462,13 @@
         <v>6235</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>574</v>
+        <v>279</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>101</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7495,13 +7483,13 @@
         <v>100167</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>455</v>
+        <v>574</v>
       </c>
       <c r="H24" s="7">
         <v>88</v>
@@ -7510,13 +7498,13 @@
         <v>61097</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="M24" s="7">
         <v>198</v>
@@ -7525,19 +7513,19 @@
         <v>161264</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="7">
         <v>144</v>
@@ -7546,13 +7534,13 @@
         <v>122587</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H25" s="7">
         <v>134</v>
@@ -7561,13 +7549,13 @@
         <v>100696</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="M25" s="7">
         <v>278</v>
@@ -7576,19 +7564,19 @@
         <v>223283</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="7">
         <v>49</v>
@@ -7597,13 +7585,13 @@
         <v>41681</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H26" s="7">
         <v>45</v>
@@ -7612,13 +7600,13 @@
         <v>39090</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M26" s="7">
         <v>94</v>
@@ -7627,13 +7615,13 @@
         <v>80770</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>600</v>
+        <v>411</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7648,13 +7636,13 @@
         <v>268038</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <v>271</v>
@@ -7663,13 +7651,13 @@
         <v>203514</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>579</v>
@@ -7678,18 +7666,18 @@
         <v>471552</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0137C534-0D41-487E-8A7D-A015B2C079AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C203780-3189-4BB8-BC66-DB0F93214CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0740AA3C-3547-4780-9A83-5F533BFF5242}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1B1374CA-5282-4F76-A725-B29C23282294}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="597">
   <si>
     <t>Menores según salud general autopercibida en 2007 (Tasa respuesta: 41,63%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -80,12 +80,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>2,82%</t>
+  </si>
+  <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
     <t>1,45%</t>
   </si>
   <si>
@@ -98,7 +98,7 @@
     <t>1,43%</t>
   </si>
   <si>
-    <t>13,1%</t>
+    <t>12,03%</t>
   </si>
   <si>
     <t>2,26%</t>
@@ -107,1627 +107,1630 @@
     <t>0,73%</t>
   </si>
   <si>
-    <t>6,05%</t>
+    <t>6,07%</t>
   </si>
   <si>
     <t>Buena</t>
   </si>
   <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
     <t>32,43%</t>
   </si>
   <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
   </si>
   <si>
     <t>26,52%</t>
   </si>
   <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
   </si>
   <si>
     <t>Muy buena</t>
   </si>
   <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
     <t>57,4%</t>
   </si>
   <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
   </si>
   <si>
     <t>53,14%</t>
   </si>
   <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
   </si>
   <si>
     <t>Excelente</t>
   </si>
   <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
     <t>10,17%</t>
   </si>
   <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según salud general autopercibida en 2012 (Tasa respuesta: 41,45%)</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>Menores según salud general autopercibida en 2016 (Tasa respuesta: 42,76%)</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>Menores según salud general autopercibida en 2023 (Tasa respuesta: 30,16%)</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
     <t>27,53%</t>
   </si>
   <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según salud general autopercibida en 2012 (Tasa respuesta: 41,45%)</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>Menores según salud general autopercibida en 2016 (Tasa respuesta: 42,76%)</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>Menores según salud general autopercibida en 2023 (Tasa respuesta: 30,16%)</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
   </si>
   <si>
     <t>0,62%</t>
@@ -1736,103 +1739,97 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
   </si>
 </sst>
 </file>
@@ -2244,7 +2241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46516A96-EB80-45D9-A71C-757306011021}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF164B4-EEEB-4B4D-B4CB-5836D84FC187}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2413,34 +2410,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1972</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1972</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -2464,10 +2461,10 @@
         <v>23</v>
       </c>
       <c r="C6" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>13811</v>
+        <v>9323</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>24</v>
@@ -2479,19 +2476,19 @@
         <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I6" s="7">
-        <v>9323</v>
+        <v>13811</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
@@ -2500,49 +2497,49 @@
         <v>23134</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="7">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7">
+        <v>21920</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>38</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>24440</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="7">
-        <v>33</v>
-      </c>
-      <c r="I7" s="7">
-        <v>21920</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>71</v>
@@ -2551,49 +2548,49 @@
         <v>46360</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="7">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7">
+        <v>11441</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="7">
         <v>6</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>4331</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="7">
-        <v>17</v>
-      </c>
-      <c r="I8" s="7">
-        <v>11441</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -2602,13 +2599,13 @@
         <v>15772</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,34 +2614,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>67</v>
+      </c>
+      <c r="D9" s="7">
+        <v>44656</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="7">
         <v>64</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>42582</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="7">
-        <v>67</v>
-      </c>
-      <c r="I9" s="7">
-        <v>44656</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>131</v>
@@ -2653,18 +2650,18 @@
         <v>87238</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2682,7 +2679,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2697,7 +2694,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2712,7 +2709,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,34 +2718,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3387</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="7">
         <v>6</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>4174</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="7">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3387</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -2757,13 +2754,13 @@
         <v>7561</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,34 +2769,34 @@
         <v>23</v>
       </c>
       <c r="C12" s="7">
+        <v>59</v>
+      </c>
+      <c r="D12" s="7">
+        <v>40043</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="7">
         <v>76</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>50268</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="7">
-        <v>59</v>
-      </c>
-      <c r="I12" s="7">
-        <v>40043</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>135</v>
@@ -2808,49 +2805,49 @@
         <v>90311</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="7">
+        <v>162</v>
+      </c>
+      <c r="D13" s="7">
+        <v>107499</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="7">
         <v>188</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>124689</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="7">
-        <v>162</v>
-      </c>
-      <c r="I13" s="7">
-        <v>107499</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>350</v>
@@ -2859,49 +2856,49 @@
         <v>232188</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="7">
+        <v>51</v>
+      </c>
+      <c r="D14" s="7">
+        <v>34191</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="7">
         <v>49</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>31940</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="7">
-        <v>51</v>
-      </c>
-      <c r="I14" s="7">
-        <v>34191</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>100</v>
@@ -2910,13 +2907,13 @@
         <v>66131</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,34 +2922,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>277</v>
+      </c>
+      <c r="D15" s="7">
+        <v>185120</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="7">
         <v>319</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>211071</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="7">
-        <v>277</v>
-      </c>
-      <c r="I15" s="7">
-        <v>185120</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M15" s="7">
         <v>596</v>
@@ -2961,51 +2958,51 @@
         <v>396191</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>726</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="7">
         <v>0</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>0</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>726</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3014,13 +3011,13 @@
         <v>726</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,34 +3026,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>1460</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>1460</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -3071,7 +3068,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,34 +3077,34 @@
         <v>23</v>
       </c>
       <c r="C18" s="7">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7">
+        <v>8470</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="7">
         <v>8</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>5545</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18" s="7">
-        <v>12</v>
-      </c>
-      <c r="I18" s="7">
-        <v>8470</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -3116,49 +3113,49 @@
         <v>14015</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7">
+        <v>47</v>
+      </c>
+      <c r="D19" s="7">
+        <v>32567</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="7">
         <v>46</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>31394</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H19" s="7">
-        <v>47</v>
-      </c>
-      <c r="I19" s="7">
-        <v>32567</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -3167,49 +3164,49 @@
         <v>63961</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="7">
+        <v>17</v>
+      </c>
+      <c r="D20" s="7">
+        <v>11645</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="7">
         <v>16</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>10110</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="7">
-        <v>17</v>
-      </c>
-      <c r="I20" s="7">
-        <v>11645</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>33</v>
@@ -3218,13 +3215,13 @@
         <v>21754</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,34 +3230,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>77</v>
+      </c>
+      <c r="D21" s="7">
+        <v>53407</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="7">
         <v>72</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>48509</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="7">
-        <v>77</v>
-      </c>
-      <c r="I21" s="7">
-        <v>53407</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M21" s="7">
         <v>149</v>
@@ -3269,13 +3266,13 @@
         <v>101916</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,34 +3283,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>726</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="7">
         <v>0</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>0</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7">
-        <v>726</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -3322,13 +3319,13 @@
         <v>726</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3337,13 @@
         <v>8</v>
       </c>
       <c r="D23" s="7">
-        <v>5634</v>
+        <v>5359</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>137</v>
@@ -3355,7 +3352,7 @@
         <v>8</v>
       </c>
       <c r="I23" s="7">
-        <v>5359</v>
+        <v>5634</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>138</v>
@@ -3379,7 +3376,7 @@
         <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,34 +3385,34 @@
         <v>23</v>
       </c>
       <c r="C24" s="7">
+        <v>85</v>
+      </c>
+      <c r="D24" s="7">
+        <v>57836</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="7">
         <v>104</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>69624</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H24" s="7">
-        <v>85</v>
-      </c>
-      <c r="I24" s="7">
-        <v>57836</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M24" s="7">
         <v>189</v>
@@ -3424,49 +3421,49 @@
         <v>127460</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="7">
+        <v>242</v>
+      </c>
+      <c r="D25" s="7">
+        <v>161986</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="7">
         <v>272</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>180523</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H25" s="7">
-        <v>242</v>
-      </c>
-      <c r="I25" s="7">
-        <v>161986</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M25" s="7">
         <v>514</v>
@@ -3475,49 +3472,49 @@
         <v>342509</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7">
+        <v>85</v>
+      </c>
+      <c r="D26" s="7">
+        <v>57277</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H26" s="7">
         <v>71</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>46381</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H26" s="7">
-        <v>85</v>
-      </c>
-      <c r="I26" s="7">
-        <v>57277</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>156</v>
@@ -3526,13 +3523,13 @@
         <v>103658</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,34 +3538,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>421</v>
+      </c>
+      <c r="D27" s="7">
+        <v>283184</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="7">
         <v>455</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>302162</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
-        <v>421</v>
-      </c>
-      <c r="I27" s="7">
-        <v>283184</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M27" s="7">
         <v>876</v>
@@ -3577,18 +3574,18 @@
         <v>585346</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3607,7 +3604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD27C65C-7AF9-41E2-AFD1-79B1035F5B7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E942185-D6DD-4EF3-A79B-D37F2143950A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3624,7 +3621,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3737,7 +3734,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3752,7 +3749,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3767,7 +3764,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,34 +3773,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>624</v>
+        <v>1331</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>1331</v>
+        <v>624</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3812,13 +3809,13 @@
         <v>1955</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,34 +3824,34 @@
         <v>23</v>
       </c>
       <c r="C6" s="7">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7">
+        <v>16687</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="7">
         <v>18</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>11998</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H6" s="7">
-        <v>23</v>
-      </c>
-      <c r="I6" s="7">
-        <v>16687</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M6" s="7">
         <v>41</v>
@@ -3863,49 +3860,49 @@
         <v>28685</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="7">
+        <v>38</v>
+      </c>
+      <c r="D7" s="7">
+        <v>26616</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H7" s="7">
         <v>34</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>25520</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H7" s="7">
-        <v>38</v>
-      </c>
-      <c r="I7" s="7">
-        <v>26616</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M7" s="7">
         <v>72</v>
@@ -3914,49 +3911,49 @@
         <v>52136</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="7">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3273</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H8" s="7">
         <v>11</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>7020</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7">
-        <v>3273</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -3965,13 +3962,13 @@
         <v>10292</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,34 +3977,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>68</v>
+      </c>
+      <c r="D9" s="7">
+        <v>47907</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="7">
         <v>64</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45162</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="7">
-        <v>68</v>
-      </c>
-      <c r="I9" s="7">
-        <v>47907</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>132</v>
@@ -4016,18 +4013,18 @@
         <v>93068</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4036,31 +4033,31 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>209</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>208</v>
+        <v>57</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -4069,13 +4066,13 @@
         <v>1358</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,34 +4081,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7">
+        <v>5020</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H11" s="7">
         <v>15</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>10076</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H11" s="7">
-        <v>7</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5020</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -4120,13 +4117,13 @@
         <v>15096</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,34 +4132,34 @@
         <v>23</v>
       </c>
       <c r="C12" s="7">
+        <v>55</v>
+      </c>
+      <c r="D12" s="7">
+        <v>38519</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H12" s="7">
         <v>68</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>47404</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H12" s="7">
-        <v>55</v>
-      </c>
-      <c r="I12" s="7">
-        <v>38519</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M12" s="7">
         <v>123</v>
@@ -4171,40 +4168,40 @@
         <v>85923</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="7">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D13" s="7">
-        <v>108060</v>
+        <v>108763</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>229</v>
       </c>
       <c r="H13" s="7">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I13" s="7">
-        <v>108763</v>
+        <v>108060</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>230</v>
@@ -4234,13 +4231,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="7">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D14" s="7">
-        <v>47915</v>
+        <v>33534</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>236</v>
@@ -4252,19 +4249,19 @@
         <v>238</v>
       </c>
       <c r="H14" s="7">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="I14" s="7">
-        <v>33534</v>
+        <v>47915</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M14" s="7">
         <v>119</v>
@@ -4273,13 +4270,13 @@
         <v>81449</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,87 +4285,87 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>267</v>
+      </c>
+      <c r="D15" s="7">
+        <v>186511</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="7">
         <v>313</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>214137</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="7">
-        <v>267</v>
-      </c>
-      <c r="I15" s="7">
-        <v>186511</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M15" s="7">
         <v>580</v>
       </c>
       <c r="N15" s="7">
-        <v>400648</v>
+        <v>400649</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>768</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H16" s="7">
         <v>0</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>0</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>768</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -4383,7 +4380,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,34 +4389,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1550</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H17" s="7">
         <v>0</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>0</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1550</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -4428,13 +4425,13 @@
         <v>1550</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,34 +4440,34 @@
         <v>23</v>
       </c>
       <c r="C18" s="7">
+        <v>26</v>
+      </c>
+      <c r="D18" s="7">
+        <v>19051</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H18" s="7">
         <v>22</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>15683</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H18" s="7">
-        <v>26</v>
-      </c>
-      <c r="I18" s="7">
-        <v>19051</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M18" s="7">
         <v>48</v>
@@ -4479,49 +4476,49 @@
         <v>34733</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7">
         <v>43</v>
       </c>
       <c r="D19" s="7">
-        <v>28633</v>
+        <v>31280</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
       </c>
       <c r="I19" s="7">
-        <v>31280</v>
+        <v>28633</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M19" s="7">
         <v>86</v>
@@ -4533,46 +4530,46 @@
         <v>233</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="7">
+        <v>8</v>
+      </c>
+      <c r="D20" s="7">
+        <v>5142</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H20" s="7">
         <v>13</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>8597</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H20" s="7">
-        <v>8</v>
-      </c>
-      <c r="I20" s="7">
-        <v>5142</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -4581,10 +4578,10 @@
         <v>13740</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>277</v>
@@ -4596,34 +4593,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>80</v>
+      </c>
+      <c r="D21" s="7">
+        <v>57791</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="7">
         <v>78</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>52913</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="7">
-        <v>80</v>
-      </c>
-      <c r="I21" s="7">
-        <v>57791</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M21" s="7">
         <v>158</v>
@@ -4632,13 +4629,13 @@
         <v>110704</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,10 +4646,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>682</v>
+        <v>1443</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>278</v>
@@ -4664,10 +4661,10 @@
         <v>279</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>1443</v>
+        <v>682</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>280</v>
@@ -4700,10 +4697,10 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D23" s="7">
-        <v>10700</v>
+        <v>7901</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>285</v>
@@ -4715,10 +4712,10 @@
         <v>287</v>
       </c>
       <c r="H23" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I23" s="7">
-        <v>7901</v>
+        <v>10700</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>288</v>
@@ -4742,7 +4739,7 @@
         <v>292</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>59</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,34 +4748,34 @@
         <v>23</v>
       </c>
       <c r="C24" s="7">
+        <v>104</v>
+      </c>
+      <c r="D24" s="7">
+        <v>74256</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H24" s="7">
         <v>108</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>75085</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H24" s="7">
-        <v>104</v>
-      </c>
-      <c r="I24" s="7">
-        <v>74256</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M24" s="7">
         <v>212</v>
@@ -4787,49 +4784,49 @@
         <v>149341</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="7">
         <v>236</v>
       </c>
       <c r="D25" s="7">
-        <v>162213</v>
+        <v>166659</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H25" s="7">
         <v>236</v>
       </c>
       <c r="I25" s="7">
-        <v>166659</v>
+        <v>162213</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M25" s="7">
         <v>472</v>
@@ -4838,49 +4835,49 @@
         <v>328872</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7">
+        <v>62</v>
+      </c>
+      <c r="D26" s="7">
+        <v>41949</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H26" s="7">
         <v>94</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>63532</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H26" s="7">
-        <v>62</v>
-      </c>
-      <c r="I26" s="7">
-        <v>41949</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M26" s="7">
         <v>156</v>
@@ -4889,13 +4886,13 @@
         <v>105481</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,34 +4901,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>415</v>
+      </c>
+      <c r="D27" s="7">
+        <v>292209</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="7">
         <v>455</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>312212</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
-        <v>415</v>
-      </c>
-      <c r="I27" s="7">
-        <v>292209</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M27" s="7">
         <v>870</v>
@@ -4940,18 +4937,18 @@
         <v>604421</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4970,7 +4967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93312DEC-3A5D-4810-9918-136609A0209E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054B2A17-DD81-461A-AE67-D8991CC7591A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4987,7 +4984,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5100,7 +5097,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5115,7 +5112,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5130,7 +5127,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,34 +5136,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>713</v>
+        <v>1518</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>1518</v>
+        <v>713</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -5175,13 +5172,13 @@
         <v>2231</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,34 +5187,34 @@
         <v>23</v>
       </c>
       <c r="C6" s="7">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5643</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H6" s="7">
         <v>6</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>4499</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H6" s="7">
-        <v>9</v>
-      </c>
-      <c r="I6" s="7">
-        <v>5643</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -5226,49 +5223,49 @@
         <v>10141</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>338</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="7">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7">
+        <v>12657</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H7" s="7">
         <v>30</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>20969</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="H7" s="7">
-        <v>18</v>
-      </c>
-      <c r="I7" s="7">
-        <v>12657</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -5277,49 +5274,49 @@
         <v>33627</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="7">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7">
+        <v>9411</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H8" s="7">
         <v>14</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>10457</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H8" s="7">
-        <v>13</v>
-      </c>
-      <c r="I8" s="7">
-        <v>9411</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>351</v>
+        <v>72</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M8" s="7">
         <v>27</v>
@@ -5328,13 +5325,13 @@
         <v>19869</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,34 +5340,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>42</v>
+      </c>
+      <c r="D9" s="7">
+        <v>29229</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="7">
-        <v>42</v>
-      </c>
-      <c r="I9" s="7">
-        <v>29229</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>93</v>
@@ -5379,18 +5376,18 @@
         <v>65868</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5399,10 +5396,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>700</v>
+        <v>657</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
@@ -5414,16 +5411,16 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>657</v>
+        <v>700</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>358</v>
+        <v>57</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -5432,13 +5429,13 @@
         <v>1357</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,31 +5444,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>1088</v>
+        <v>2259</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>361</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1088</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2259</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>365</v>
@@ -5498,34 +5495,34 @@
         <v>23</v>
       </c>
       <c r="C12" s="7">
+        <v>45</v>
+      </c>
+      <c r="D12" s="7">
+        <v>33060</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H12" s="7">
         <v>49</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>36391</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="H12" s="7">
-        <v>45</v>
-      </c>
-      <c r="I12" s="7">
-        <v>33060</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M12" s="7">
         <v>94</v>
@@ -5534,49 +5531,49 @@
         <v>69451</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="7">
+        <v>162</v>
+      </c>
+      <c r="D13" s="7">
+        <v>111049</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H13" s="7">
         <v>114</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>82995</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="H13" s="7">
-        <v>162</v>
-      </c>
-      <c r="I13" s="7">
-        <v>111049</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>276</v>
@@ -5585,49 +5582,49 @@
         <v>194044</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="7">
+        <v>115</v>
+      </c>
+      <c r="D14" s="7">
+        <v>81644</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H14" s="7">
         <v>129</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>94539</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="H14" s="7">
-        <v>115</v>
-      </c>
-      <c r="I14" s="7">
-        <v>81644</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="M14" s="7">
         <v>244</v>
@@ -5636,13 +5633,13 @@
         <v>176183</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5651,34 +5648,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>327</v>
+      </c>
+      <c r="D15" s="7">
+        <v>228668</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="7">
         <v>294</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>215713</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="7">
-        <v>327</v>
-      </c>
-      <c r="I15" s="7">
-        <v>228668</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M15" s="7">
         <v>621</v>
@@ -5687,51 +5684,51 @@
         <v>444381</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>690</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5740,13 +5737,13 @@
         <v>690</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>397</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5755,34 +5752,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>617</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H17" s="7">
         <v>3</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>2355</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>617</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -5791,13 +5788,13 @@
         <v>2972</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,34 +5803,34 @@
         <v>23</v>
       </c>
       <c r="C18" s="7">
+        <v>11</v>
+      </c>
+      <c r="D18" s="7">
+        <v>7687</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H18" s="7">
         <v>15</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>11317</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="H18" s="7">
-        <v>11</v>
-      </c>
-      <c r="I18" s="7">
-        <v>7687</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M18" s="7">
         <v>26</v>
@@ -5842,28 +5839,28 @@
         <v>19004</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7">
-        <v>32731</v>
+        <v>38362</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>190</v>
+        <v>412</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>413</v>
@@ -5872,10 +5869,10 @@
         <v>414</v>
       </c>
       <c r="H19" s="7">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I19" s="7">
-        <v>38362</v>
+        <v>32731</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>415</v>
@@ -5905,37 +5902,37 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="7">
+        <v>28</v>
+      </c>
+      <c r="D20" s="7">
+        <v>19604</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="H20" s="7">
         <v>37</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>26560</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H20" s="7">
-        <v>28</v>
-      </c>
-      <c r="I20" s="7">
-        <v>19604</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>423</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>25</v>
+        <v>424</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M20" s="7">
         <v>65</v>
@@ -5944,13 +5941,13 @@
         <v>46165</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,34 +5956,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>93</v>
+      </c>
+      <c r="D21" s="7">
+        <v>66271</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="7">
         <v>102</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>73654</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="7">
-        <v>93</v>
-      </c>
-      <c r="I21" s="7">
-        <v>66271</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M21" s="7">
         <v>195</v>
@@ -5995,13 +5992,13 @@
         <v>139925</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6012,34 +6009,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>1390</v>
+        <v>657</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>281</v>
+        <v>430</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>657</v>
+        <v>1390</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -6048,13 +6045,13 @@
         <v>2047</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6063,34 +6060,34 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D23" s="7">
-        <v>4156</v>
+        <v>4394</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>95</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>435</v>
       </c>
       <c r="H23" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I23" s="7">
-        <v>4394</v>
+        <v>4156</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>95</v>
+        <v>436</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -6099,13 +6096,13 @@
         <v>8550</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>403</v>
+        <v>62</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6114,34 +6111,34 @@
         <v>23</v>
       </c>
       <c r="C24" s="7">
+        <v>65</v>
+      </c>
+      <c r="D24" s="7">
+        <v>46390</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="H24" s="7">
         <v>70</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>52207</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="H24" s="7">
-        <v>65</v>
-      </c>
-      <c r="I24" s="7">
-        <v>46390</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M24" s="7">
         <v>135</v>
@@ -6150,49 +6147,49 @@
         <v>98596</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="7">
+        <v>233</v>
+      </c>
+      <c r="D25" s="7">
+        <v>162068</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H25" s="7">
         <v>190</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>136696</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="H25" s="7">
-        <v>233</v>
-      </c>
-      <c r="I25" s="7">
-        <v>162068</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M25" s="7">
         <v>423</v>
@@ -6201,49 +6198,49 @@
         <v>298764</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7">
+        <v>156</v>
+      </c>
+      <c r="D26" s="7">
+        <v>110659</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="H26" s="7">
         <v>180</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>131557</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="H26" s="7">
-        <v>156</v>
-      </c>
-      <c r="I26" s="7">
-        <v>110659</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M26" s="7">
         <v>336</v>
@@ -6252,13 +6249,13 @@
         <v>242217</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,34 +6264,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>462</v>
+      </c>
+      <c r="D27" s="7">
+        <v>324168</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="7">
         <v>447</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>326006</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
-        <v>462</v>
-      </c>
-      <c r="I27" s="7">
-        <v>324168</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M27" s="7">
         <v>909</v>
@@ -6303,18 +6300,18 @@
         <v>650174</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -6333,7 +6330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDFF1F6-EE1E-4EA3-9EBA-85ACA0F22B60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097DCEAA-6DE3-4E50-B0BC-586A1C68FFE4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6350,7 +6347,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6463,7 +6460,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6478,7 +6475,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>469</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6502,40 +6499,40 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="H5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
-        <v>1790</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>1767</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>1790</v>
+        <v>1767</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>473</v>
@@ -6553,10 +6550,10 @@
         <v>23</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>6586</v>
+        <v>3388</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>475</v>
@@ -6568,10 +6565,10 @@
         <v>477</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>3641</v>
+        <v>6393</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>478</v>
@@ -6586,118 +6583,118 @@
         <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>10227</v>
+        <v>9781</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>481</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>316</v>
+        <v>482</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6071</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="H7" s="7">
         <v>10</v>
       </c>
-      <c r="D7" s="7">
-        <v>7900</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="H7" s="7">
-        <v>8</v>
-      </c>
       <c r="I7" s="7">
-        <v>7274</v>
+        <v>7853</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>486</v>
+        <v>455</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>51</v>
+        <v>487</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>15173</v>
+        <v>13924</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="7">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2948</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
-        <v>642</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>741</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="H8" s="7">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2995</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>494</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>40</v>
+        <v>495</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>3638</v>
+        <v>3689</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,54 +6703,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7">
+        <v>12407</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="7">
         <v>21</v>
       </c>
-      <c r="D9" s="7">
-        <v>16918</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="7">
-        <v>18</v>
-      </c>
       <c r="I9" s="7">
-        <v>13910</v>
+        <v>16754</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>39</v>
       </c>
       <c r="N9" s="7">
-        <v>30827</v>
+        <v>29162</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6771,7 +6768,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>399</v>
+        <v>499</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6786,7 +6783,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>498</v>
+        <v>398</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -6801,7 +6798,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6813,10 +6810,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>1814</v>
+        <v>2033</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>501</v>
@@ -6828,10 +6825,10 @@
         <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>2026</v>
+        <v>1801</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>95</v>
+        <v>398</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>503</v>
@@ -6843,16 +6840,16 @@
         <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>3840</v>
+        <v>3834</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6861,112 +6858,112 @@
         <v>23</v>
       </c>
       <c r="C12" s="7">
+        <v>65</v>
+      </c>
+      <c r="D12" s="7">
+        <v>43484</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="H12" s="7">
         <v>75</v>
       </c>
-      <c r="D12" s="7">
-        <v>72300</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="I12" s="7">
+        <v>76224</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="H12" s="7">
-        <v>65</v>
-      </c>
-      <c r="I12" s="7">
-        <v>46030</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="M12" s="7">
         <v>140</v>
       </c>
       <c r="N12" s="7">
-        <v>118329</v>
+        <v>119707</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="7">
+        <v>102</v>
+      </c>
+      <c r="D13" s="7">
+        <v>70876</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="H13" s="7">
         <v>104</v>
       </c>
-      <c r="D13" s="7">
-        <v>90914</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H13" s="7">
-        <v>102</v>
-      </c>
       <c r="I13" s="7">
-        <v>75269</v>
+        <v>90443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M13" s="7">
         <v>206</v>
       </c>
       <c r="N13" s="7">
-        <v>166183</v>
+        <v>161319</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>522</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="7">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D14" s="7">
-        <v>32934</v>
+        <v>43752</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>523</v>
@@ -6978,10 +6975,10 @@
         <v>525</v>
       </c>
       <c r="H14" s="7">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I14" s="7">
-        <v>25731</v>
+        <v>35100</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>526</v>
@@ -6996,7 +6993,7 @@
         <v>62</v>
       </c>
       <c r="N14" s="7">
-        <v>58665</v>
+        <v>78852</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>529</v>
@@ -7014,54 +7011,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>196</v>
+      </c>
+      <c r="D15" s="7">
+        <v>160145</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="7">
         <v>218</v>
       </c>
-      <c r="D15" s="7">
-        <v>197961</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="7">
-        <v>196</v>
-      </c>
       <c r="I15" s="7">
-        <v>149056</v>
+        <v>203568</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M15" s="7">
         <v>414</v>
       </c>
       <c r="N15" s="7">
-        <v>347017</v>
+        <v>363713</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7079,7 +7076,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>362</v>
+        <v>532</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7094,7 +7091,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7109,7 +7106,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7118,49 +7115,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>617</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="H17" s="7">
         <v>0</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>0</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>605</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7169,151 +7166,151 @@
         <v>23</v>
       </c>
       <c r="C18" s="7">
+        <v>18</v>
+      </c>
+      <c r="D18" s="7">
+        <v>10667</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H18" s="7">
         <v>27</v>
       </c>
-      <c r="D18" s="7">
-        <v>21282</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H18" s="7">
-        <v>18</v>
-      </c>
       <c r="I18" s="7">
-        <v>11426</v>
+        <v>20683</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="M18" s="7">
         <v>45</v>
       </c>
       <c r="N18" s="7">
-        <v>32708</v>
+        <v>31350</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7">
+        <v>24</v>
+      </c>
+      <c r="D19" s="7">
+        <v>17347</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="7">
         <v>30</v>
       </c>
-      <c r="D19" s="7">
-        <v>23773</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="H19" s="7">
-        <v>24</v>
-      </c>
       <c r="I19" s="7">
-        <v>18153</v>
+        <v>23891</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M19" s="7">
         <v>54</v>
       </c>
       <c r="N19" s="7">
-        <v>41927</v>
+        <v>41238</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="7">
+        <v>14</v>
+      </c>
+      <c r="D20" s="7">
+        <v>10121</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="H20" s="7">
         <v>12</v>
       </c>
-      <c r="D20" s="7">
-        <v>8105</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="H20" s="7">
-        <v>14</v>
-      </c>
       <c r="I20" s="7">
-        <v>10363</v>
+        <v>8118</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
       </c>
       <c r="N20" s="7">
-        <v>18468</v>
+        <v>18239</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,49 +7319,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>57</v>
+      </c>
+      <c r="D21" s="7">
+        <v>38752</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="7">
         <v>69</v>
       </c>
-      <c r="D21" s="7">
-        <v>53160</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="7">
-        <v>57</v>
-      </c>
       <c r="I21" s="7">
-        <v>40548</v>
+        <v>52693</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M21" s="7">
         <v>126</v>
       </c>
       <c r="N21" s="7">
-        <v>93708</v>
+        <v>91445</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7387,7 +7384,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>563</v>
+        <v>98</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7402,7 +7399,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>97</v>
+        <v>564</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7417,7 +7414,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7426,46 +7423,46 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
+        <v>4</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2650</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="H23" s="7">
         <v>5</v>
       </c>
-      <c r="D23" s="7">
-        <v>3603</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="H23" s="7">
-        <v>4</v>
-      </c>
       <c r="I23" s="7">
-        <v>2631</v>
+        <v>3568</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>568</v>
+        <v>439</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
       </c>
       <c r="N23" s="7">
-        <v>6235</v>
+        <v>6218</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>279</v>
+        <v>570</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>570</v>
+        <v>56</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>571</v>
@@ -7477,10 +7474,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="7">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="D24" s="7">
-        <v>100167</v>
+        <v>57538</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>572</v>
@@ -7492,10 +7489,10 @@
         <v>574</v>
       </c>
       <c r="H24" s="7">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="I24" s="7">
-        <v>61097</v>
+        <v>103300</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>575</v>
@@ -7504,124 +7501,124 @@
         <v>576</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>577</v>
+        <v>184</v>
       </c>
       <c r="M24" s="7">
         <v>198</v>
       </c>
       <c r="N24" s="7">
-        <v>161264</v>
+        <v>160839</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>579</v>
-      </c>
       <c r="Q24" s="7" t="s">
-        <v>580</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="7">
+        <v>134</v>
+      </c>
+      <c r="D25" s="7">
+        <v>94294</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="H25" s="7">
         <v>144</v>
       </c>
-      <c r="D25" s="7">
-        <v>122587</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="I25" s="7">
+        <v>122188</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="H25" s="7">
-        <v>134</v>
-      </c>
-      <c r="I25" s="7">
-        <v>100696</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>586</v>
       </c>
       <c r="M25" s="7">
         <v>278</v>
       </c>
       <c r="N25" s="7">
-        <v>223283</v>
+        <v>216482</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7">
+        <v>45</v>
+      </c>
+      <c r="D26" s="7">
+        <v>56822</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="H26" s="7">
         <v>49</v>
       </c>
-      <c r="D26" s="7">
-        <v>41681</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="I26" s="7">
+        <v>43959</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="H26" s="7">
-        <v>45</v>
-      </c>
-      <c r="I26" s="7">
-        <v>39090</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>595</v>
       </c>
       <c r="M26" s="7">
         <v>94</v>
       </c>
       <c r="N26" s="7">
-        <v>80770</v>
+        <v>100781</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>596</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7630,54 +7627,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>271</v>
+      </c>
+      <c r="D27" s="7">
+        <v>211304</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="7">
         <v>308</v>
       </c>
-      <c r="D27" s="7">
-        <v>268038</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
-        <v>271</v>
-      </c>
       <c r="I27" s="7">
-        <v>203514</v>
+        <v>273016</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M27" s="7">
         <v>579</v>
       </c>
       <c r="N27" s="7">
-        <v>471552</v>
+        <v>484320</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
